--- a/Бинды.xlsx
+++ b/Бинды.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>normal</t>
   </si>
@@ -130,12 +130,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>GotoNextHighLight</t>
-  </si>
-  <si>
-    <t>GotoFile</t>
-  </si>
-  <si>
     <t>LineComment</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Generate</t>
   </si>
   <si>
-    <t>ToFileMember</t>
-  </si>
-  <si>
     <t>AltEnter</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>NewLine</t>
   </si>
   <si>
-    <t>EditSymbol</t>
-  </si>
-  <si>
     <t>EditWord</t>
   </si>
   <si>
@@ -202,9 +190,6 @@
     <t>Right</t>
   </si>
   <si>
-    <t>ToEndLine</t>
-  </si>
-  <si>
     <t>Visual Line</t>
   </si>
   <si>
@@ -232,12 +217,6 @@
     <t>InsertAfter</t>
   </si>
   <si>
-    <t>DeleteSymbol</t>
-  </si>
-  <si>
-    <t>WideSelection</t>
-  </si>
-  <si>
     <t>DeleteLine</t>
   </si>
   <si>
@@ -253,16 +232,40 @@
     <t>ToFile</t>
   </si>
   <si>
-    <t>SearchNext</t>
-  </si>
-  <si>
-    <t>RepeatSearch</t>
-  </si>
-  <si>
-    <t>RepeatSearchBack</t>
-  </si>
-  <si>
-    <t>SearchPrev</t>
+    <t>EditSelected</t>
+  </si>
+  <si>
+    <t>NextWord</t>
+  </si>
+  <si>
+    <t>PrevWord</t>
+  </si>
+  <si>
+    <t>GlueLine</t>
+  </si>
+  <si>
+    <t>DeleteSelected</t>
+  </si>
+  <si>
+    <t>ToEdits</t>
+  </si>
+  <si>
+    <t>ToMember</t>
+  </si>
+  <si>
+    <t>ExtendSelection</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>StartLine</t>
+  </si>
+  <si>
+    <t>EndLine</t>
+  </si>
+  <si>
+    <t>CloseButThis</t>
   </si>
 </sst>
 </file>
@@ -298,8 +301,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -604,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,10 +676,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,10 +709,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,10 +720,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,10 +763,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +771,13 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +785,13 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +799,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,124 +813,132 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Бинды.xlsx
+++ b/Бинды.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2790" yWindow="105" windowWidth="5610" windowHeight="2655"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -67,18 +67,12 @@
     <t>Completion</t>
   </si>
   <si>
-    <t>SaveAll</t>
-  </si>
-  <si>
     <t>CodeCleanup</t>
   </si>
   <si>
     <t>Rename</t>
   </si>
   <si>
-    <t>CloseWindow</t>
-  </si>
-  <si>
     <t>NextWindow</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>DeleteSelected</t>
   </si>
   <si>
-    <t>ToEdits</t>
-  </si>
-  <si>
     <t>ToMember</t>
   </si>
   <si>
@@ -265,7 +256,16 @@
     <t>EndLine</t>
   </si>
   <si>
-    <t>CloseButThis</t>
+    <t>PrevTab</t>
+  </si>
+  <si>
+    <t>NextTab</t>
+  </si>
+  <si>
+    <t>Close tab</t>
+  </si>
+  <si>
+    <t>console vim</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,10 +687,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,10 +695,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,190 +717,193 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,13 +911,13 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,13 +925,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/Бинды.xlsx
+++ b/Бинды.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="105" windowWidth="5610" windowHeight="2655"/>
+    <workbookView xWindow="4650" yWindow="105" windowWidth="5610" windowHeight="2655"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>normal</t>
   </si>
@@ -61,21 +61,9 @@
     <t>.</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>Completion</t>
-  </si>
-  <si>
     <t>CodeCleanup</t>
   </si>
   <si>
-    <t>Rename</t>
-  </si>
-  <si>
-    <t>NextWindow</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>PrevMethod</t>
   </si>
   <si>
-    <t>ShowUsages</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>Generate</t>
   </si>
   <si>
-    <t>AltEnter</t>
-  </si>
-  <si>
     <t>DecreaseIndent</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>EditWordFrom</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>InsertAfter</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>PrevWord</t>
   </si>
   <si>
-    <t>GlueLine</t>
-  </si>
-  <si>
     <t>DeleteSelected</t>
   </si>
   <si>
@@ -256,23 +232,38 @@
     <t>EndLine</t>
   </si>
   <si>
-    <t>PrevTab</t>
-  </si>
-  <si>
-    <t>NextTab</t>
-  </si>
-  <si>
-    <t>Close tab</t>
-  </si>
-  <si>
     <t>console vim</t>
+  </si>
+  <si>
+    <t>ReformatSelection</t>
+  </si>
+  <si>
+    <t>ContextAction</t>
+  </si>
+  <si>
+    <t>RenameElement</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>ToUsages</t>
+  </si>
+  <si>
+    <t>ToRecentFiles</t>
+  </si>
+  <si>
+    <t>SplitLine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,16 +271,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF303030"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -297,19 +301,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF303030"/>
+      <color rgb="FF4D4D4D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -608,341 +634,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A9:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="A22" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>